--- a/data/trans_camb/P16A15-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A15-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A15-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A15-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -657,22 +657,22 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
     </row>
@@ -710,22 +710,22 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 3,67</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,93</t>
         </is>
       </c>
     </row>
@@ -763,22 +763,22 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,38</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 2,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,35; 1,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,41; 1,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,1; 1,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,63; 0,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,16; 1,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,36; 1,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,33; 0,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,14; 1,27</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>467,21%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,02%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,05%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>220,96%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>217,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>345,43%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>133,37%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-38,36; —</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,05; 1766,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 545,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,99; 1103,14</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,75; 3,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,32; 2,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 2,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,87; 2,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,38; 0,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,44; 0,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 2,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,3; 0,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,37; 0,97</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,42%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,4%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,87%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,91%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,2%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,23%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,77%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,94%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,03%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,14; 214,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,18; 163,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,82; 194,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,62; 190,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,98; 20,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,64; 17,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,37; 133,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,71; 50,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,69; 59,92</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,16</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 5,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,77; 5,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,09; 6,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,05; 7,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,56; 5,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,37; 3,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,09; 5,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 4,54</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 4,05</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,48%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,4%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,56%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>89,62%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,73%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,58%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,78%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,94%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,43%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,41; 132,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,31; 125,49</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,22; 150,49</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,84; 206,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,81; 167,07</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,35; 88,76</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,38; 129,69</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,97; 106,39</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,93; 94,62</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,71</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,23</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,78</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,77</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,83</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,6; 11,36</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,12; 6,78</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,62; 10,72</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,86; 12,63</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,01; 10,17</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,86; 9,84</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,98; 10,44</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,42; 7,24</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,43; 8,81</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,59%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,38%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,36%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,57%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,36%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,17%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,92%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,55%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,4%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,3; 101,64</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,79; 59,12</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,56; 95,54</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,14; 104,37</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 81,78</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,59; 79,2</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,52; 85,66</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,33; 57,88</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,16; 70,07</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,95</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,04</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,07</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,61</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,31</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,54</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,88</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,75</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,05</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,79; 20,39</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,12; 16,26</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,71; 17,35</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,52; 13,96</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,15; 10,06</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,61; 36,14</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,32; 15,97</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,52; 11,24</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,78; 31,76</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,17%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,71%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,84%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,28%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,7%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,87%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,52%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,55%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,25%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,22; 127,98</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,31; 102,53</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,54; 112,44</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,21; 63,35</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,5; 45,37</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>46,17; 166,76</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,23; 79,09</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,83; 56,42</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>51,39; 159,37</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,61</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,69</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,43</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,75</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,18; 5,91</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,29; 4,75</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,23; 7,92</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,86; 5,77</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,64; 4,56</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,79; 16,76</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,52; 5,39</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,32; 4,32</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,02; 13,35</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,77%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,24%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>113,54%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,6%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,36%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>110,06%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,45%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,55%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>112,8%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,76; 112,69</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,47; 90,41</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>81,67; 151,61</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,68; 80,25</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,33; 62,5</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>70,85; 219,74</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,78; 84,04</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,61; 66,92</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>83,73; 191,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A15-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A15-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,38</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,67</t>
+          <t>0,0; 3,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,93</t>
+          <t>0,0; 1,4</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,37 +858,37 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>0,05</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,66</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-0,14</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,98</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,31</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 1,47</t>
+          <t>-0,41; 1,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 1,93</t>
+          <t>-0,23; 1,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 1,27</t>
+          <t>-0,18; 1,07</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>11,49%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>217,6%</t>
+          <t>176,91%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>133,37%</t>
+          <t>108,18%</t>
         </is>
       </c>
     </row>
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-57,99; 1103,14</t>
+          <t>-62,76; 991,31</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-0,15</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 2,94</t>
+          <t>-1,0; 2,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 0,12</t>
+          <t>-2,43; 0,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 0,97</t>
+          <t>-1,34; 0,97</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>30,87%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-53,23%</t>
+          <t>-53,8%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-8,03%</t>
+          <t>-7,12%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-34,82; 194,32</t>
+          <t>-34,47; 195,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-82,64; 17,61</t>
+          <t>-82,31; 18,83</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-51,69; 59,92</t>
+          <t>-50,67; 63,15</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>1,17</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,09; 6,36</t>
+          <t>-3,78; 4,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 3,22</t>
+          <t>-1,7; 2,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,19; 4,05</t>
+          <t>-1,86; 3,28</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>58,56%</t>
+          <t>23,93%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>22,58%</t>
+          <t>18,03%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>41,43%</t>
+          <t>22,48%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 150,49</t>
+          <t>-54,34; 101,03</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-21,35; 88,76</t>
+          <t>-25,61; 82,96</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,93; 94,62</t>
+          <t>-30,26; 73,49</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>6,23</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,54</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>5,83</t>
+          <t>5,97</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,62; 10,72</t>
+          <t>1,77; 10,9</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,86; 9,84</t>
+          <t>0,92; 9,9</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,43; 8,81</t>
+          <t>2,6; 8,98</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>45,36%</t>
+          <t>46,81%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>36,17%</t>
+          <t>36,73%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>40,4%</t>
+          <t>41,37%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>9,56; 95,54</t>
+          <t>10,96; 97,47</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>3,59; 79,2</t>
+          <t>4,19; 79,62</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>14,16; 70,07</t>
+          <t>15,55; 71,36</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>14,95</t>
+          <t>16,89</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>11,04</t>
+          <t>12,06</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>13,07</t>
+          <t>10,51</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>9,61</t>
+          <t>7,84</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>19,54</t>
+          <t>30,44</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>11,88</t>
+          <t>12,01</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>7,75</t>
+          <t>7,43</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>17,05</t>
+          <t>23,53</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>9,79; 20,39</t>
+          <t>9,57; 24,6</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>6,12; 16,26</t>
+          <t>5,53; 18,28</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>8,71; 17,35</t>
+          <t>5,0; 16,51</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>4,52; 13,96</t>
+          <t>0,81; 14,43</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,15; 10,06</t>
+          <t>-3,75; 9,57</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>11,61; 36,14</t>
+          <t>6,11; 60,05</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>8,32; 15,97</t>
+          <t>6,62; 16,54</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>4,52; 11,24</t>
+          <t>2,97; 11,82</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>11,78; 31,76</t>
+          <t>7,53; 51,63</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>82,17%</t>
+          <t>96,62%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>60,71%</t>
+          <t>69,03%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>71,84%</t>
+          <t>60,12%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>39,28%</t>
+          <t>31,63%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>21,7%</t>
+          <t>13,96%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>79,87%</t>
+          <t>122,86%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>54,52%</t>
+          <t>56,1%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>35,55%</t>
+          <t>34,71%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>78,25%</t>
+          <t>109,89%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>47,22; 127,98</t>
+          <t>46,27; 166,77</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>28,31; 102,53</t>
+          <t>28,23; 134,42</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>41,54; 112,44</t>
+          <t>22,64; 118,64</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>16,21; 63,35</t>
+          <t>3,56; 69,17</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>0,5; 45,37</t>
+          <t>-13,12; 44,12</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>46,17; 166,76</t>
+          <t>23,38; 281,93</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>35,23; 79,09</t>
+          <t>27,98; 83,9</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>18,83; 56,42</t>
+          <t>13,14; 63,06</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>51,39; 159,37</t>
+          <t>33,36; 260,26</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>12,43</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>9,65</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>6,61</t>
+          <t>16,33</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>11,27</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>7,08</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>8,69</t>
+          <t>17,71</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>4,43</t>
+          <t>11,69</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>8,06</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>7,75</t>
+          <t>17,09</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>3,18; 5,91</t>
+          <t>4,22; 20,47</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>2,29; 4,75</t>
+          <t>1,9; 16,93</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>5,23; 7,92</t>
+          <t>8,99; 23,43</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>2,86; 5,77</t>
+          <t>4,3; 18,1</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,56</t>
+          <t>-0,4; 13,57</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>5,79; 16,76</t>
+          <t>11,67; 23,19</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>3,52; 5,39</t>
+          <t>6,08; 16,9</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>2,32; 4,32</t>
+          <t>3,03; 13,37</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>6,02; 13,35</t>
+          <t>12,42; 21,55</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>76,77%</t>
+          <t>64,8%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>61,24%</t>
+          <t>50,28%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>113,54%</t>
+          <t>85,12%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>55,6%</t>
+          <t>46,66%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>39,36%</t>
+          <t>29,31%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>110,06%</t>
+          <t>73,31%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>64,45%</t>
+          <t>52,59%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>48,55%</t>
+          <t>36,24%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>112,8%</t>
+          <t>76,85%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>18,64; 130,43</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>6,84; 109,4</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>35,86; 157,2</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>15,23; 87,31</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-1,82; 65,59</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>40,54; 116,81</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>23,59; 86,01</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>11,52; 68,42</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>47,66; 112,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>4,47</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>3,56</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>5,63</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>4,39</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>3,11</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>10,65</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>4,43</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>3,34</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>8,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>3,18; 5,91</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>2,29; 4,75</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>2,74; 7,09</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>2,86; 5,77</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>1,64; 4,56</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>5,39; 24,57</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>3,52; 5,39</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>2,32; 4,32</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>5,18; 18,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>76,77%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>61,24%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>96,67%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>55,6%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>39,36%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>134,93%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>64,45%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>48,55%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>119,62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>49,76; 112,69</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>35,47; 90,41</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>81,67; 151,61</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>50,14; 133,61</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>32,68; 80,25</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>18,33; 62,5</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>70,85; 219,74</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>66,64; 330,05</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>47,78; 84,04</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>31,61; 66,92</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>83,73; 191,46</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>73,92; 267,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P16A15-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A15-Edad-trans_camb.xlsx
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,21</t>
+          <t>0,0; 3,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,78</t>
+          <t>0,28; 2,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 1,06</t>
+          <t>-0,28; 1,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 1,36</t>
+          <t>-0,42; 1,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 1,87</t>
+          <t>-0,13; 1,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 0,35</t>
+          <t>-0,73; 0,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 1,75</t>
+          <t>-0,19; 1,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,87</t>
+          <t>0,33; 1,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 0,48</t>
+          <t>-0,36; 0,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 1,07</t>
+          <t>-0,17; 1,03</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-38,36; —</t>
+          <t>-74,15; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1037,17 +1037,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>43,05; 1766,53</t>
+          <t>30,2; 1594,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 545,4</t>
+          <t>-82,21; 564,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-62,76; 991,31</t>
+          <t>-64,02; 934,61</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 3,16</t>
+          <t>-0,8; 3,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 2,5</t>
+          <t>-1,18; 2,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 2,97</t>
+          <t>-1,07; 2,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 2,38</t>
+          <t>-0,94; 2,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 0,12</t>
+          <t>-2,57; 0,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 0,11</t>
+          <t>-2,46; 0,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 2,17</t>
+          <t>-0,13; 2,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 0,8</t>
+          <t>-1,35; 0,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 0,97</t>
+          <t>-1,23; 0,89</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-26,14; 214,45</t>
+          <t>-29,75; 203,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-41,18; 163,28</t>
+          <t>-39,26; 178,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-34,47; 195,29</t>
+          <t>-38,53; 180,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-33,62; 190,41</t>
+          <t>-37,12; 193,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-84,98; 20,04</t>
+          <t>-87,73; 16,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-82,31; 18,83</t>
+          <t>-81,66; 20,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-13,37; 133,78</t>
+          <t>-7,77; 139,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-50,71; 50,21</t>
+          <t>-50,25; 52,13</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-50,67; 63,15</t>
+          <t>-47,91; 55,03</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 5,59</t>
+          <t>-0,53; 5,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 5,02</t>
+          <t>-0,82; 5,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 4,99</t>
+          <t>-3,83; 5,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,05; 7,55</t>
+          <t>1,32; 7,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,56; 5,85</t>
+          <t>0,45; 6,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 2,88</t>
+          <t>-1,7; 3,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,09; 5,64</t>
+          <t>1,3; 5,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,54</t>
+          <t>0,69; 4,54</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 3,28</t>
+          <t>-1,87; 3,05</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,41; 132,26</t>
+          <t>-9,38; 138,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,31; 125,49</t>
+          <t>-11,64; 123,83</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-54,34; 101,03</t>
+          <t>-48,15; 107,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16,84; 206,88</t>
+          <t>19,85; 201,23</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,81; 167,07</t>
+          <t>1,47; 173,24</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-25,61; 82,96</t>
+          <t>-26,26; 90,6</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>16,38; 129,69</t>
+          <t>19,51; 130,33</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,97; 106,39</t>
+          <t>7,77; 101,15</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-30,26; 73,49</t>
+          <t>-30,73; 67,72</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,6; 11,36</t>
+          <t>0,65; 11,9</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 6,78</t>
+          <t>-2,75; 7,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,77; 10,9</t>
+          <t>1,55; 10,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,86; 12,63</t>
+          <t>2,98; 13,81</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,01; 10,17</t>
+          <t>-0,22; 10,29</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,92; 9,9</t>
+          <t>0,95; 10,08</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,98; 10,44</t>
+          <t>2,98; 10,81</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 7,24</t>
+          <t>0,13; 7,27</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,6; 8,98</t>
+          <t>2,76; 9,16</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3,3; 101,64</t>
+          <t>3,1; 101,68</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-20,79; 59,12</t>
+          <t>-17,44; 63,04</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>10,96; 97,47</t>
+          <t>8,94; 100,53</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>10,14; 104,37</t>
+          <t>16,3; 113,85</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 81,78</t>
+          <t>-1,41; 80,88</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>4,19; 79,62</t>
+          <t>4,64; 80,47</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>18,52; 85,66</t>
+          <t>18,16; 87,77</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 57,88</t>
+          <t>0,74; 58,75</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>15,55; 71,36</t>
+          <t>17,3; 74,74</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>9,57; 24,6</t>
+          <t>9,74; 24,08</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>5,53; 18,28</t>
+          <t>4,84; 18,44</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>5,0; 16,51</t>
+          <t>4,47; 15,84</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,81; 14,43</t>
+          <t>1,27; 14,72</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 9,57</t>
+          <t>-2,62; 9,84</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,11; 60,05</t>
+          <t>6,03; 56,93</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,62; 16,54</t>
+          <t>7,22; 17,35</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,97; 11,82</t>
+          <t>3,11; 12,14</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>7,53; 51,63</t>
+          <t>7,65; 48,96</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>46,27; 166,77</t>
+          <t>45,23; 164,71</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>28,23; 134,42</t>
+          <t>23,56; 124,41</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>22,64; 118,64</t>
+          <t>20,45; 109,65</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>3,56; 69,17</t>
+          <t>4,09; 68,37</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-13,12; 44,12</t>
+          <t>-9,31; 44,68</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>23,38; 281,93</t>
+          <t>23,45; 266,32</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>27,98; 83,9</t>
+          <t>29,81; 90,06</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>13,14; 63,06</t>
+          <t>13,16; 62,42</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>33,36; 260,26</t>
+          <t>34,01; 272,87</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>4,22; 20,47</t>
+          <t>4,44; 20,44</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,9; 16,93</t>
+          <t>1,56; 16,91</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>8,99; 23,43</t>
+          <t>9,45; 22,74</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>4,3; 18,1</t>
+          <t>3,97; 18,15</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 13,57</t>
+          <t>0,1; 14,44</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>11,67; 23,19</t>
+          <t>11,75; 23,91</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>6,08; 16,9</t>
+          <t>6,14; 16,94</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>3,03; 13,37</t>
+          <t>2,72; 13,65</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>12,42; 21,55</t>
+          <t>12,73; 21,53</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>18,64; 130,43</t>
+          <t>18,74; 136,55</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>6,84; 109,4</t>
+          <t>6,11; 112,57</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>35,86; 157,2</t>
+          <t>36,79; 148,69</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>15,23; 87,31</t>
+          <t>14,46; 87,94</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 65,59</t>
+          <t>0,22; 71,74</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>40,54; 116,81</t>
+          <t>40,12; 120,83</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>23,59; 86,01</t>
+          <t>23,35; 86,83</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>11,52; 68,42</t>
+          <t>10,46; 70,03</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>47,66; 112,21</t>
+          <t>50,07; 111,74</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>3,18; 5,91</t>
+          <t>3,06; 5,76</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>2,29; 4,75</t>
+          <t>2,3; 4,85</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>2,74; 7,09</t>
+          <t>3,37; 7,25</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>2,86; 5,77</t>
+          <t>2,82; 5,75</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,56</t>
+          <t>1,64; 4,57</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>5,39; 24,57</t>
+          <t>5,5; 26,72</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>3,52; 5,39</t>
+          <t>3,45; 5,45</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>2,32; 4,32</t>
+          <t>2,36; 4,39</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>5,18; 18,48</t>
+          <t>5,37; 17,71</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>49,76; 112,69</t>
+          <t>47,88; 110,72</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>35,47; 90,41</t>
+          <t>36,33; 92,83</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>50,14; 133,61</t>
+          <t>56,76; 137,98</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>32,68; 80,25</t>
+          <t>32,37; 78,8</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>18,33; 62,5</t>
+          <t>19,12; 62,36</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>66,64; 330,05</t>
+          <t>68,62; 347,52</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>47,78; 84,04</t>
+          <t>46,58; 83,89</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>31,61; 66,92</t>
+          <t>31,85; 67,24</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>73,92; 267,78</t>
+          <t>76,44; 274,75</t>
         </is>
       </c>
     </row>
